--- a/RX8 AP Kit.xlsx
+++ b/RX8 AP Kit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garrett\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC5ABFE-FF55-41C2-BA32-B2EA99E8B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7EEBA1-1F7E-41E1-8259-DAEB7D08D7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8256DFDB-4863-4A3A-8ABD-7907C921550B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8256DFDB-4863-4A3A-8ABD-7907C921550B}"/>
   </bookViews>
   <sheets>
     <sheet name="Front" sheetId="2" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1FF9CB-2B9A-4708-ADED-2420AF9342CC}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
         <v>657.27</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F22" si="0">E5*D5</f>
+        <f t="shared" ref="F5:F10" si="0">E5*D5</f>
         <v>657.27</v>
       </c>
       <c r="G5" t="s">
@@ -760,8 +760,8 @@
         <v>59</v>
       </c>
       <c r="L5" s="5">
-        <f>SUM(F4:F15)</f>
-        <v>3523.68</v>
+        <f>SUM(F4:F16)</f>
+        <v>3527.174</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1009,8 +1009,29 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <f>17.47/5</f>
+        <v>3.4939999999999998</v>
+      </c>
+      <c r="F16" s="3">
+        <f>E16*D16</f>
+        <v>3.4939999999999998</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F17" s="7"/>
@@ -1108,18 +1129,19 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{043ACAEF-85E9-4C16-A545-A35F123622A5}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{93F862BD-C0D4-4E44-8EB7-2BEA272E451F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F69E46-798A-42CD-90A3-AF4D6B868E77}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1231,7 @@
         <v>441.2</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F11" si="0">E5*D5</f>
+        <f>E5*D5</f>
         <v>441.2</v>
       </c>
       <c r="G5" t="s">
@@ -1222,8 +1244,8 @@
         <v>60</v>
       </c>
       <c r="L5" s="5">
-        <f>SUM(F4:F11)</f>
-        <v>2020.104</v>
+        <f>SUM(F4:F10)</f>
+        <v>2016.6100000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1241,7 +1263,7 @@
         <v>441.2</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f>E6*D6</f>
         <v>441.2</v>
       </c>
       <c r="G6" t="s">
@@ -1266,7 +1288,7 @@
         <v>429.46000000000004</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
+        <f>E7*D7</f>
         <v>429.46000000000004</v>
       </c>
       <c r="G7" t="s">
@@ -1292,7 +1314,7 @@
         <v>429.46000000000004</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
+        <f>E8*D8</f>
         <v>429.46000000000004</v>
       </c>
       <c r="G8" t="s">
@@ -1302,80 +1324,65 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <f>17.47/5</f>
-        <v>3.4939999999999998</v>
+        <v>13.21</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4939999999999998</v>
+        <f>E9*D9</f>
+        <v>13.21</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>13.21</v>
+        <v>23.54</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>13.21</v>
+        <f>E10*D10</f>
+        <v>47.08</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>23.54</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>47.08</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
@@ -1387,21 +1394,15 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13"/>
-      <c r="H13"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
@@ -1451,19 +1452,14 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{93F862BD-C0D4-4E44-8EB7-2BEA272E451F}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{52BE8926-7D56-4FC6-88FA-DE2512FC341A}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{B9988DE6-2F91-4271-88D3-420DE381CA68}"/>
-    <hyperlink ref="H11" r:id="rId4" xr:uid="{4505B1FC-09DD-4E13-B4E6-FC4A879F376D}"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{52BE8926-7D56-4FC6-88FA-DE2512FC341A}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{B9988DE6-2F91-4271-88D3-420DE381CA68}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{4505B1FC-09DD-4E13-B4E6-FC4A879F376D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>